--- a/AAII_Financials/Yearly/SRM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SRM_YR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1481,7 +1481,7 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="E41" s="3">
         <v>500</v>
@@ -1589,7 +1589,7 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>700</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
         <v>600</v>
@@ -1616,7 +1616,7 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2100</v>
+        <v>0</v>
       </c>
       <c r="E46" s="3">
         <v>1800</v>
@@ -1832,7 +1832,7 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2100</v>
+        <v>0</v>
       </c>
       <c r="E54" s="3">
         <v>1800</v>
@@ -1885,7 +1885,7 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E57" s="3">
         <v>500</v>
@@ -1912,7 +1912,7 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="E58" s="3">
         <v>1500</v>
@@ -1966,7 +1966,7 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2100</v>
+        <v>0</v>
       </c>
       <c r="E60" s="3">
         <v>2100</v>
@@ -2128,7 +2128,7 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2100</v>
+        <v>0</v>
       </c>
       <c r="E66" s="3">
         <v>2100</v>
